--- a/CASO-VENTAS-PARA-TODOS.xlsx
+++ b/CASO-VENTAS-PARA-TODOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAVIDMP 2021\CURSOS 2021-1\GU-Fundamentos de Programacion\PROYECTO INTEGRADOR\CASOS\Grupo 2\G-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DESARROLLO CLASES FP\FP-2021-G1X\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Productos</t>
   </si>
@@ -59,9 +59,6 @@
     <t>IdVenta</t>
   </si>
   <si>
-    <t>DniCliente</t>
-  </si>
-  <si>
     <t>IdProducto</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>unidadMed</t>
   </si>
   <si>
-    <t>categoria</t>
-  </si>
-  <si>
     <t>precioUnit</t>
   </si>
   <si>
@@ -156,6 +150,39 @@
   </si>
   <si>
     <t>netoTotal</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>idDNI</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>Verduras</t>
+  </si>
+  <si>
+    <t>bebidas</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>enlatados</t>
   </si>
 </sst>
 </file>
@@ -171,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +223,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -270,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -293,6 +332,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N36"/>
+  <dimension ref="B3:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +640,7 @@
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J3" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -606,51 +657,51 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
       <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="1" t="s">
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
+      <c r="G5" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1">
         <v>123456</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -679,15 +730,15 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -753,7 +804,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -765,12 +816,12 @@
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="N12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -789,39 +840,39 @@
       <c r="J16" s="9"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1">
         <v>43631917</v>
@@ -842,7 +893,7 @@
         <v>101.75999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,38 +906,76 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="N19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="N20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="F23" s="1"/>
@@ -895,8 +984,12 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="F24" s="1"/>
@@ -905,18 +998,36 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D28" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -924,36 +1035,41 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="17"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>6</v>
@@ -973,15 +1089,15 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G31" s="1">
         <f>D7+D7*E7</f>
@@ -998,7 +1114,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1044,7 +1160,8 @@
       <c r="J36" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="N19:Q19"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B4:H4"/>
@@ -1052,5 +1169,6 @@
     <mergeCell ref="D28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CASO-VENTAS-PARA-TODOS.xlsx
+++ b/CASO-VENTAS-PARA-TODOS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Productos</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>IdUsuario</t>
-  </si>
-  <si>
     <t>clave</t>
   </si>
   <si>
@@ -183,6 +180,12 @@
   </si>
   <si>
     <t>enlatados</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>idUsuario</t>
   </si>
 </sst>
 </file>
@@ -320,6 +323,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,18 +347,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:M3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,38 +642,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
       <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -685,23 +688,23 @@
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>38</v>
+      <c r="G5" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="L5" s="1">
         <v>123456</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -730,15 +733,15 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -804,7 +807,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -816,12 +819,12 @@
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="N12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -831,31 +834,31 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="F17" s="12" t="s">
+      <c r="C17" s="16"/>
+      <c r="F17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>19</v>
@@ -865,14 +868,14 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>38</v>
+      <c r="B18" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="1">
         <v>43631917</v>
@@ -906,19 +909,19 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="N19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="15"/>
+      <c r="N19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -926,25 +929,25 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="P20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="16" t="s">
+      <c r="Q20" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -959,10 +962,10 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1026,16 +1029,16 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="L28" s="17"/>
+      <c r="D28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="L28" s="10"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -1043,12 +1046,12 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
@@ -1061,15 +1064,15 @@
         <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>6</v>
@@ -1091,13 +1094,13 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" s="1">
         <f>D7+D7*E7</f>
@@ -1161,12 +1164,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D28:J28"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="D28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CASO-VENTAS-PARA-TODOS.xlsx
+++ b/CASO-VENTAS-PARA-TODOS.xlsx
@@ -113,9 +113,6 @@
     <t>Administrador</t>
   </si>
   <si>
-    <t>DetallaVenta</t>
-  </si>
-  <si>
     <t>IdVEntaDetalle</t>
   </si>
   <si>
@@ -186,14 +183,25 @@
   </si>
   <si>
     <t>idUsuario</t>
+  </si>
+  <si>
+    <t>VentaDetalle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -312,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -326,6 +334,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,9 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:M4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,28 +651,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>23</v>
@@ -689,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>3</v>
@@ -738,10 +747,10 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -807,7 +816,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
       <c r="N11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -819,12 +828,12 @@
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -834,31 +843,31 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="17"/>
       <c r="F17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>19</v>
@@ -869,13 +878,13 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1">
         <v>43631917</v>
@@ -909,19 +918,19 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="N19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="13"/>
+      <c r="N19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -930,24 +939,24 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="N20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="P20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="Q20" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -962,10 +971,10 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1009,6 +1018,7 @@
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
+      <c r="K25" s="18"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1029,15 +1039,15 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D28" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="D28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
       <c r="L28" s="10"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1046,7 +1056,7 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>10</v>
@@ -1064,15 +1074,15 @@
         <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>6</v>
@@ -1094,13 +1104,13 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" s="1">
         <f>D7+D7*E7</f>
@@ -1164,12 +1174,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="D28:J28"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
